--- a/assets/map.xlsx
+++ b/assets/map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sources\retro\DeckHero\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C8BCA6-6EFF-46A7-BDBD-DED8B60CBA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB7CBCE-98CC-4474-B49C-AFF2EF2E8B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6BB66AD8-1D17-46FB-B011-3660DF44AA15}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="A2:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
@@ -571,8 +571,8 @@
         <v>1</v>
       </c>
       <c r="I3" t="str">
-        <f>".db 0b0"&amp;C3&amp;D3&amp;E3&amp;F3&amp;DEC2BIN(B3,3)&amp;", 0b0"&amp;C4&amp;D4&amp;E4&amp;F4&amp;DEC2BIN(B4,3)&amp;", 0b0"&amp;C5&amp;D5&amp;E5&amp;F5&amp;DEC2BIN(B5,3)&amp;", 0b0"&amp;C6&amp;D6&amp;E6&amp;F6&amp;DEC2BIN(B6,3)</f>
-        <v>.db 0b01000001, 0b00100010, 0b00010011, 0b00001100</v>
+        <f>".db #0b0"&amp;C3&amp;D3&amp;E3&amp;F3&amp;DEC2BIN(B3,3)&amp;", #0b0"&amp;C4&amp;D4&amp;E4&amp;F4&amp;DEC2BIN(B4,3)&amp;", #0b0"&amp;C5&amp;D5&amp;E5&amp;F5&amp;DEC2BIN(B5,3)&amp;", #0b0"&amp;C6&amp;D6&amp;E6&amp;F6&amp;DEC2BIN(B6,3)</f>
+        <v>.db #0b00000001, #0b00000001, #0b00000001, #0b00000001</v>
       </c>
       <c r="K3" t="str">
         <f>ADDRESS(8+A11,2,)</f>
@@ -582,13 +582,13 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -601,14 +601,14 @@
         <v>2</v>
       </c>
       <c r="I4" t="str">
-        <f>".db 0b0"&amp;C7&amp;D7&amp;E7&amp;F7&amp;DEC2BIN(B7,3)&amp;", 0b0"&amp;C8&amp;D8&amp;E8&amp;F8&amp;DEC2BIN(B8,3)&amp;", 0b0"&amp;C9&amp;D9&amp;E9&amp;F9&amp;DEC2BIN(B9,3)&amp;", 0b0"&amp;C10&amp;D10&amp;E10&amp;F10&amp;DEC2BIN(B10,3)</f>
-        <v>.db 0b01000100, 0b00100011, 0b00010010, 0b00001001</v>
+        <f>".db #0b0"&amp;C7&amp;D7&amp;E7&amp;F7&amp;DEC2BIN(B7,3)&amp;", #0b0"&amp;C8&amp;D8&amp;E8&amp;F8&amp;DEC2BIN(B8,3)&amp;", #0b0"&amp;C9&amp;D9&amp;E9&amp;F9&amp;DEC2BIN(B9,3)&amp;", #0b0"&amp;C10&amp;D10&amp;E10&amp;F10&amp;DEC2BIN(B10,3)</f>
+        <v>.db #0b01000100, #0b01100011, #0b00010010, #0b00001000</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -627,14 +627,14 @@
         <v>3</v>
       </c>
       <c r="I5" t="str">
-        <f>".db 0b0"&amp;C11&amp;D11&amp;E11&amp;F11&amp;DEC2BIN(B11,3)&amp;", 0b0"&amp;C12&amp;D12&amp;E12&amp;F12&amp;DEC2BIN(B12,3)&amp;", 0b0"&amp;C13&amp;D13&amp;E13&amp;F13&amp;DEC2BIN(B13,3)&amp;", 0b0"&amp;C14&amp;D14&amp;E14&amp;F14&amp;DEC2BIN(B14,3)</f>
-        <v>.db 0b01000001, 0b00100010, 0b00010011, 0b00001100</v>
+        <f>".db #0b0"&amp;C11&amp;D11&amp;E11&amp;F11&amp;DEC2BIN(B11,3)&amp;", #0b0"&amp;C12&amp;D12&amp;E12&amp;F12&amp;DEC2BIN(B12,3)&amp;", #0b0"&amp;C13&amp;D13&amp;E13&amp;F13&amp;DEC2BIN(B13,3)&amp;", #0b0"&amp;C14&amp;D14&amp;E14&amp;F14&amp;DEC2BIN(B14,3)</f>
+        <v>.db #0b01000001, #0b00110010, #0b00010011, #0b00001100</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -646,15 +646,15 @@
         <v>0</v>
       </c>
       <c r="F6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="7">
         <v>4</v>
       </c>
       <c r="I6" t="str">
-        <f>".db 0b0"&amp;C15&amp;D15&amp;E15&amp;F15&amp;DEC2BIN(B15,3)&amp;", 0b0"&amp;C16&amp;D16&amp;E16&amp;F16&amp;DEC2BIN(B16,3)&amp;", 0b0"&amp;C17&amp;D17&amp;E17&amp;F17&amp;DEC2BIN(B17,3)&amp;", 0b0"&amp;C18&amp;D18&amp;E18&amp;F18&amp;DEC2BIN(B18,3)</f>
-        <v>.db 0b01000001, 0b00100010, 0b00010011, 0b00001100</v>
+        <f>".db #0b0"&amp;C15&amp;D15&amp;E15&amp;F15&amp;DEC2BIN(B15,3)&amp;", #0b0"&amp;C16&amp;D16&amp;E16&amp;F16&amp;DEC2BIN(B16,3)&amp;", #0b0"&amp;C17&amp;D17&amp;E17&amp;F17&amp;DEC2BIN(B17,3)&amp;", #0b0"&amp;C18&amp;D18&amp;E18&amp;F18&amp;DEC2BIN(B18,3)</f>
+        <v>.db #0b01000001, #0b00100010, #0b00010011, #0b00001100</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -681,8 +681,8 @@
         <v>5</v>
       </c>
       <c r="I7" t="str">
-        <f>".db 0b0"&amp;C19&amp;D19&amp;E19&amp;F19&amp;DEC2BIN(B19,3)&amp;", 0b0"&amp;C20&amp;D20&amp;E20&amp;F20&amp;DEC2BIN(B20,3)&amp;", 0b0"&amp;C21&amp;D21&amp;E21&amp;F21&amp;DEC2BIN(B21,3)&amp;", 0b0"&amp;C22&amp;D22&amp;E22&amp;F22&amp;DEC2BIN(B22,3)</f>
-        <v>.db 0b01000001, 0b00100010, 0b00010011, 0b00001100</v>
+        <f>".db #0b0"&amp;C19&amp;D19&amp;E19&amp;F19&amp;DEC2BIN(B19,3)&amp;", #0b0"&amp;C20&amp;D20&amp;E20&amp;F20&amp;DEC2BIN(B20,3)&amp;", #0b0"&amp;C21&amp;D21&amp;E21&amp;F21&amp;DEC2BIN(B21,3)&amp;", #0b0"&amp;C22&amp;D22&amp;E22&amp;F22&amp;DEC2BIN(B22,3)</f>
+        <v>.db #0b01000001, #0b00100010, #0b00010011, #0b00001100</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -707,8 +707,8 @@
         <v>6</v>
       </c>
       <c r="I8" t="str">
-        <f>".db 0b0"&amp;C23&amp;D23&amp;E23&amp;F23&amp;DEC2BIN(B23,3)&amp;", 0b0"&amp;C24&amp;D24&amp;E24&amp;F24&amp;DEC2BIN(B24,3)&amp;", 0b0"&amp;C25&amp;D25&amp;E25&amp;F25&amp;DEC2BIN(B25,3)&amp;", 0b0"&amp;C26&amp;D26&amp;E26&amp;F26&amp;DEC2BIN(B26,3)</f>
-        <v>.db 0b01000001, 0b00100010, 0b00010011, 0b00001100</v>
+        <f>".db #0b0"&amp;C23&amp;D23&amp;E23&amp;F23&amp;DEC2BIN(B23,3)&amp;", #0b0"&amp;C24&amp;D24&amp;E24&amp;F24&amp;DEC2BIN(B24,3)&amp;", #0b0"&amp;C25&amp;D25&amp;E25&amp;F25&amp;DEC2BIN(B25,3)&amp;", #0b0"&amp;C26&amp;D26&amp;E26&amp;F26&amp;DEC2BIN(B26,3)</f>
+        <v>.db #0b01000001, #0b00100010, #0b00010011, #0b00001100</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -732,11 +732,15 @@
       <c r="H9" s="7">
         <v>7</v>
       </c>
+      <c r="I9" t="str">
+        <f>".db #0b0"&amp;C27&amp;D27&amp;E27&amp;F27&amp;DEC2BIN(B27,3)&amp;", #0b0"&amp;C28&amp;D28&amp;E28&amp;F28&amp;DEC2BIN(B28,3)&amp;", #0b0"&amp;C29&amp;D29&amp;E29&amp;F29&amp;DEC2BIN(B29,3)&amp;", #0b0"&amp;C30&amp;D30&amp;E30&amp;F30&amp;DEC2BIN(B30,3)</f>
+        <v>.db #0b01000001, #0b00100010, #0b00010011, #0b00001100</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="5">
         <v>0</v>
@@ -753,6 +757,10 @@
       <c r="G10" s="3"/>
       <c r="H10" s="7">
         <v>8</v>
+      </c>
+      <c r="I10" t="str">
+        <f>".db #0b0"&amp;C31&amp;D31&amp;E31&amp;F31&amp;DEC2BIN(B31,3)&amp;", #0b0"&amp;C32&amp;D32&amp;E32&amp;F32&amp;DEC2BIN(B32,3)&amp;", #0b0"&amp;C33&amp;D33&amp;E33&amp;F33&amp;DEC2BIN(B33,3)&amp;", #0b0"&amp;C34&amp;D34&amp;E34&amp;F34&amp;DEC2BIN(B34,3)</f>
+        <v>.db #0b01000001, #0b00100010, #0b00010011, #0b00001100</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -791,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
